--- a/01.設計書/01.テーブル定義書/テーブル一覧.xlsx
+++ b/01.設計書/01.テーブル定義書/テーブル一覧.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MOS\01.設計書\01.テーブル定義書\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="840" yWindow="405" windowWidth="19155" windowHeight="7545"/>
+    <workbookView xWindow="840" yWindow="405" windowWidth="19155" windowHeight="7545" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="変更履歴" sheetId="5" r:id="rId1"/>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
@@ -47,10 +52,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ユーザマスタ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -93,22 +94,29 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>products</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>テーブル</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>suser</t>
+    <t>顧客マスタ</t>
+    <rPh sb="0" eb="2">
+      <t>コキャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CUSTOMERS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PRODUCTS</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -192,12 +200,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -239,7 +250,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -272,9 +283,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -307,6 +335,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -485,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -498,16 +543,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -519,10 +564,10 @@
         <v>43079</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -612,6 +657,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -619,16 +665,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -642,7 +688,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -654,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -672,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
